--- a/StructureDefinition-Subject.xlsx
+++ b/StructureDefinition-Subject.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$11</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="90">
   <si>
     <t>Path</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: FHIR</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -154,6 +157,9 @@
 </t>
   </si>
   <si>
+    <t>Patient</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
     <t>Subject.name</t>
   </si>
   <si>
@@ -230,12 +239,18 @@
     <t>Subject Name</t>
   </si>
   <si>
+    <t>Patient.name</t>
+  </si>
+  <si>
     <t>Subject.name.fullName</t>
   </si>
   <si>
     <t>Full Name</t>
   </si>
   <si>
+    <t>Patient.name.text</t>
+  </si>
+  <si>
     <t>Subject.name.firstName</t>
   </si>
   <si>
@@ -245,10 +260,16 @@
     <t>Firstname</t>
   </si>
   <si>
+    <t>Patient.name.given</t>
+  </si>
+  <si>
     <t>Subject.name.lastname</t>
   </si>
   <si>
     <t>Last or Family Name</t>
+  </si>
+  <si>
+    <t>Patient.name.family</t>
   </si>
   <si>
     <t>Subject.gender</t>
@@ -261,6 +282,9 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>Immunization.gender</t>
+  </si>
+  <si>
     <t>Subject.dateOfBirth</t>
   </si>
   <si>
@@ -269,6 +293,9 @@
   </si>
   <si>
     <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Immunization.birthDate</t>
   </si>
 </sst>
 </file>
@@ -417,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -461,7 +488,8 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,1011 +601,1044 @@
       <c r="AJ1" t="s" s="1">
         <v>35</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>37</v>
+        <v>85</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ11">
+  <autoFilter ref="A1:AK11">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-Subject.xlsx
+++ b/StructureDefinition-Subject.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="100">
   <si>
     <t>Path</t>
   </si>
@@ -223,7 +223,10 @@
 </t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Person Identifier</t>
+  </si>
+  <si>
+    <t>The identifier used to identify the immunized person according to the policies applicable within the jurisdiction.</t>
   </si>
   <si>
     <t>Patient.identifier</t>
@@ -236,7 +239,10 @@
 </t>
   </si>
   <si>
-    <t>Subject Name</t>
+    <t>Person Name</t>
+  </si>
+  <si>
+    <t>The legal name of the immunized person</t>
   </si>
   <si>
     <t>Patient.name</t>
@@ -282,7 +288,7 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Immunization.gender</t>
+    <t>Patient.gender</t>
   </si>
   <si>
     <t>Subject.dateOfBirth</t>
@@ -295,7 +301,34 @@
     <t>Date of birth</t>
   </si>
   <si>
-    <t>Immunization.birthDate</t>
+    <t>The date of birth of the immunized person.
+To include at a minimum the year of birth (which could be estimated)</t>
+  </si>
+  <si>
+    <t>Patient.birthDate</t>
+  </si>
+  <si>
+    <t>Subject.ethnicity</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Represents the self-reported ethnic group of the immunized person.
+This should not be confused with citizenship or nationality.</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t>Subject.sex</t>
+  </si>
+  <si>
+    <t>Recorded Sex</t>
+  </si>
+  <si>
+    <t>Documentation of a specific instance of sex information. 
+Not to be confused with the client’s gender identity (if present) which is an individual's personal sense of being a man, woman, boy, girl, or something else.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -488,7 +521,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="19.53125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -947,7 +980,7 @@
         <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1013,7 +1046,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1021,7 +1054,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1044,13 +1077,13 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1101,7 +1134,7 @@
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -1116,7 +1149,7 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -1124,7 +1157,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1150,10 +1183,10 @@
         <v>49</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1204,7 +1237,7 @@
         <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -1219,7 +1252,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -1227,7 +1260,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1253,10 +1286,10 @@
         <v>49</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1307,7 +1340,7 @@
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -1322,7 +1355,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -1330,7 +1363,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1356,10 +1389,10 @@
         <v>49</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1410,7 +1443,7 @@
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -1425,7 +1458,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1433,7 +1466,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1456,13 +1489,13 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1513,7 +1546,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -1528,7 +1561,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -1536,7 +1569,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1559,13 +1592,13 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1616,7 +1649,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -1631,14 +1664,220 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK11">
+  <autoFilter ref="A1:AK13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1648,7 +1887,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI10">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-Subject.xlsx
+++ b/StructureDefinition-Subject.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="91">
   <si>
     <t>Path</t>
   </si>
@@ -157,9 +157,6 @@
 </t>
   </si>
   <si>
-    <t>Patient</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>The identifier used to identify the immunized person according to the policies applicable within the jurisdiction.</t>
   </si>
   <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
     <t>Subject.name</t>
   </si>
   <si>
@@ -245,18 +239,12 @@
     <t>The legal name of the immunized person</t>
   </si>
   <si>
-    <t>Patient.name</t>
-  </si>
-  <si>
     <t>Subject.name.fullName</t>
   </si>
   <si>
     <t>Full Name</t>
   </si>
   <si>
-    <t>Patient.name.text</t>
-  </si>
-  <si>
     <t>Subject.name.firstName</t>
   </si>
   <si>
@@ -266,16 +254,10 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>Patient.name.given</t>
-  </si>
-  <si>
     <t>Subject.name.lastname</t>
   </si>
   <si>
     <t>Last or Family Name</t>
-  </si>
-  <si>
-    <t>Patient.name.family</t>
   </si>
   <si>
     <t>Subject.gender</t>
@@ -288,9 +270,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Patient.gender</t>
-  </si>
-  <si>
     <t>Subject.dateOfBirth</t>
   </si>
   <si>
@@ -305,9 +284,6 @@
 To include at a minimum the year of birth (which could be estimated)</t>
   </si>
   <si>
-    <t>Patient.birthDate</t>
-  </si>
-  <si>
     <t>Subject.ethnicity</t>
   </si>
   <si>
@@ -316,9 +292,6 @@
   <si>
     <t>Represents the self-reported ethnic group of the immunized person.
 This should not be confused with citizenship or nationality.</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
   </si>
   <si>
     <t>Subject.sex</t>
@@ -521,7 +494,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="19.53125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="16.37109375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -735,15 +708,15 @@
         <v>45</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -766,13 +739,13 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -823,7 +796,7 @@
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>42</v>
@@ -841,16 +814,16 @@
         <v>38</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -869,16 +842,16 @@
         <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -916,19 +889,19 @@
         <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>42</v>
@@ -940,18 +913,18 @@
         <v>38</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -974,13 +947,13 @@
         <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1031,7 +1004,7 @@
         <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -1046,7 +1019,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1054,7 +1027,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1077,13 +1050,13 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1134,7 +1107,7 @@
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -1149,7 +1122,7 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -1157,7 +1130,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1180,13 +1153,13 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1237,7 +1210,7 @@
         <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -1252,7 +1225,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -1260,7 +1233,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1283,13 +1256,13 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1340,7 +1313,7 @@
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -1355,7 +1328,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -1363,7 +1336,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1386,13 +1359,13 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1443,7 +1416,7 @@
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -1458,7 +1431,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1466,7 +1439,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1489,13 +1462,13 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1546,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -1561,7 +1534,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -1569,7 +1542,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1592,13 +1565,13 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1649,7 +1622,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -1664,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -1672,7 +1645,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1695,13 +1668,13 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1752,7 +1725,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -1767,7 +1740,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -1775,7 +1748,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1798,13 +1771,13 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1855,7 +1828,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-Subject.xlsx
+++ b/StructureDefinition-Subject.xlsx
@@ -301,7 +301,7 @@
   </si>
   <si>
     <t>Documentation of a specific instance of sex information. 
-Not to be confused with the client’s gender identity (if present) which is an individual's personal sense of being a man, woman, boy, girl, or something else.</t>
+Not to be confused with the client?s gender identity (if present) which is an individual's personal sense of being a man, woman, boy, girl, or something else.</t>
   </si>
 </sst>
 </file>
